--- a/pyfeng/data/heston_benchmark.xlsx
+++ b/pyfeng/data/heston_benchmark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\PyFENG\pyfeng\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAC1324-755F-4A3A-9567-915CD786F9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB839AB-0F3E-4939-BD53-0CAC98313770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="743" xr2:uid="{CFD8C97F-677E-4081-BE35-9D7DB797B3CD}"/>
+    <workbookView xWindow="13944" yWindow="96" windowWidth="13872" windowHeight="16560" tabRatio="743" xr2:uid="{CFD8C97F-677E-4081-BE35-9D7DB797B3CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Param" sheetId="7" r:id="rId1"/>
@@ -210,18 +210,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -546,18 +542,18 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.81640625" customWidth="1"/>
-    <col min="8" max="8" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="8"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+    <col min="8" max="8" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -588,10 +584,10 @@
       <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
       <c r="M1" t="s">
@@ -601,43 +597,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="2">
         <v>0.04</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="2">
         <f>B2</f>
         <v>0.04</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="2">
         <v>-0.9</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="2">
         <v>0.5</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="2">
         <v>10</v>
       </c>
-      <c r="H2" s="5">
-        <v>100</v>
-      </c>
-      <c r="I2" s="5">
+      <c r="H2" s="2">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2">
         <v>0</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="2">
         <v>0</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="6">
         <f>4*C2*F2/(D2*D2)</f>
         <v>0.08</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2">
         <f>4*B2*F2/(D2*D2)/(EXP(F2*G2)-1)</f>
         <v>5.4269239250433849E-4</v>
       </c>
@@ -649,43 +645,43 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="2">
         <v>0.04</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="2">
         <f t="shared" ref="C3" si="0">B3</f>
         <v>0.04</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <v>0.9</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2">
         <v>-0.5</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="2">
         <v>0.3</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="2">
         <v>15</v>
       </c>
-      <c r="H3" s="5">
-        <v>100</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="H3" s="2">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="6">
         <f>4*C3*F3/(D3*D3)</f>
         <v>5.9259259259259255E-2</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3">
         <f t="shared" ref="L3:L13" si="1">4*B3*F3/(D3*D3)/(EXP(F3*G3)-1)</f>
         <v>6.6570623422136589E-4</v>
       </c>
@@ -697,43 +693,43 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>0.09</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <f>B4</f>
         <v>0.09</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>-0.3</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2">
         <v>5</v>
       </c>
-      <c r="H4" s="5">
-        <v>100</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="H4" s="2">
+        <v>100</v>
+      </c>
+      <c r="I4" s="2">
         <v>0.05</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="2">
         <v>0</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="6">
         <f t="shared" ref="K4:K10" si="2">4*C4*F4/(D4*D4)</f>
         <v>0.36</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4">
         <f t="shared" si="1"/>
         <v>2.442115766269523E-3</v>
       </c>
@@ -745,42 +741,42 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>1.0201E-2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>1.9E-2</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>0.61</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>-0.7</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="2">
         <v>6.21</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="5">
-        <v>100</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="H5" s="2">
+        <v>100</v>
+      </c>
+      <c r="I5" s="2">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="6">
         <f t="shared" si="2"/>
         <v>1.268368718086536</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5">
         <f t="shared" si="1"/>
         <v>1.3710061880287368E-3</v>
       </c>
@@ -791,42 +787,42 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="2">
         <v>0.09</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>0.09</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>-0.3</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="2">
         <v>5</v>
       </c>
-      <c r="H6" s="5">
-        <v>100</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="H6" s="2">
+        <v>100</v>
+      </c>
+      <c r="I6" s="2">
         <v>0.05</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="2">
         <v>0</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="6">
         <f t="shared" si="2"/>
         <v>0.72</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6">
         <f t="shared" si="1"/>
         <v>3.2689433526975188E-5</v>
       </c>
@@ -837,42 +833,42 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="2">
         <v>0.16</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>0.16</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <v>-0.8</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="2">
         <v>10</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="2">
         <v>0</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="2">
         <v>0</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="6">
         <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7">
         <f t="shared" si="1"/>
         <v>7.2643185615500428E-6</v>
       </c>
@@ -883,42 +879,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="2">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="2">
         <v>5.8599999999999999E-2</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>0.51959999999999995</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="2">
         <v>-0.67469999999999997</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="2">
         <v>1.0407</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="2">
         <v>4</v>
       </c>
-      <c r="H8" s="5">
-        <v>100</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="H8" s="2">
+        <v>100</v>
+      </c>
+      <c r="I8" s="2">
         <v>0</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="2">
         <v>0</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="6">
         <f t="shared" si="2"/>
         <v>0.90353478515184005</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8">
         <f t="shared" si="1"/>
         <v>4.7291206987607939E-3</v>
       </c>
@@ -929,42 +925,42 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>0.04</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>0.25</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <v>-0.5</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="2">
         <v>4</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="5">
-        <v>100</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="H9" s="2">
+        <v>100</v>
+      </c>
+      <c r="I9" s="2">
         <v>0.01</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="2">
         <v>0.02</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9">
         <f t="shared" si="1"/>
         <v>1.1940710632815392E-2</v>
       </c>
@@ -975,42 +971,42 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="2">
         <v>0.01</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>0.25</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="2">
         <v>-0.5</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="2">
         <v>4</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>0.01</v>
       </c>
-      <c r="H10" s="5">
-        <v>100</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="H10" s="2">
+        <v>100</v>
+      </c>
+      <c r="I10" s="2">
         <v>0.01</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="2">
         <v>0.02</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10">
         <f t="shared" si="1"/>
         <v>3.9205333191116547</v>
       </c>
@@ -1021,42 +1017,42 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="2">
         <v>0.114</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="2">
         <v>-0.36</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="2">
         <v>2.58</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="5">
-        <v>100</v>
-      </c>
-      <c r="I11" s="5">
+      <c r="H11" s="2">
+        <v>100</v>
+      </c>
+      <c r="I11" s="2">
         <v>0</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="2">
         <v>0</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="6">
         <f t="shared" ref="K11:K13" si="3">4*C11*F11/(D11*D11)</f>
         <v>0.44375999999999999</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11">
         <f t="shared" si="1"/>
         <v>9.6455413114132763E-2</v>
       </c>
@@ -1067,42 +1063,42 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="2">
         <v>0.09</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="2">
         <v>0.09</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="2">
         <v>0.4</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="2">
         <v>4</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="2">
         <v>0.5</v>
       </c>
-      <c r="H12" s="5">
-        <v>100</v>
-      </c>
-      <c r="I12" s="5">
+      <c r="H12" s="2">
+        <v>100</v>
+      </c>
+      <c r="I12" s="2">
         <v>0</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="2">
         <v>0</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="6">
         <f t="shared" si="3"/>
         <v>8.9999999999999982</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12">
         <f t="shared" si="1"/>
         <v>1.4086587847469905</v>
       </c>
@@ -1113,42 +1109,42 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="2">
         <v>0.1225</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="2">
         <v>0.1225</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="2">
         <v>0.8</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="2">
         <v>8</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="2">
         <v>0.5</v>
       </c>
-      <c r="H13" s="5">
-        <v>100</v>
-      </c>
-      <c r="I13" s="5">
+      <c r="H13" s="2">
+        <v>100</v>
+      </c>
+      <c r="I13" s="2">
         <v>0</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="2">
         <v>0</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="6">
         <f t="shared" si="3"/>
         <v>6.1249999999999991</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13">
         <f t="shared" si="1"/>
         <v>0.11427633222811603</v>
       </c>
@@ -1171,15 +1167,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437B921E-6D3A-47EC-9DF4-CC9958C57C5F}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1190,18 +1184,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>90</v>
       </c>
       <c r="B2">
         <v>-1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>4.5183603586861701E-8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>95</v>
       </c>
@@ -1212,7 +1206,7 @@
         <v>4.6195485565385098E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>100</v>
       </c>
@@ -1223,25 +1217,36 @@
         <v>0.47778117162950401</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
-        <v>2.5274478231946999E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>0.46778267151284397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
+        <v>2.5274478231946999E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>110</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
         <v>1.2993276005262401E-13</v>
       </c>
     </row>
@@ -1258,12 +1263,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1271,31 +1276,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>100*(100/75)</f>
         <v>133.33333333333331</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="7">
         <f>0.908502728459621*(100/75)</f>
         <v>1.2113369712794946</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="7">
         <f>9.04665011922096</f>
         <v>9.0466501192209599</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>100*(100/125)</f>
         <v>80</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="7">
         <f>28.5147863992987*(100/125)</f>
         <v>22.811829119438961</v>
       </c>
@@ -1313,9 +1318,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1332,7 +1337,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>80</v>
       </c>
@@ -1349,7 +1354,7 @@
         <v>21.43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>90</v>
       </c>
@@ -1366,7 +1371,7 @@
         <v>13.935</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>100</v>
       </c>
@@ -1383,7 +1388,7 @@
         <v>8.359</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>110</v>
       </c>
@@ -1400,7 +1405,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>120</v>
       </c>
@@ -1430,12 +1435,12 @@
       <selection activeCell="B2" sqref="B2:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1452,7 +1457,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>80</v>
       </c>
@@ -1469,7 +1474,7 @@
         <v>22.192</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>90</v>
       </c>
@@ -1486,7 +1491,7 @@
         <v>15.099</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>100</v>
       </c>
@@ -1503,7 +1508,7 @@
         <v>9.7260000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>110</v>
       </c>
@@ -1520,7 +1525,7 @@
         <v>5.992</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>120</v>
       </c>
@@ -1550,12 +1555,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1563,35 +1568,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>60</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>44.329975070000003</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>70</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>35.849769700000003</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>100</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>13.08467014</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>140</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>0.29577444000000003</v>
       </c>
     </row>
@@ -1608,9 +1613,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1618,7 +1623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>60</v>
       </c>
@@ -1626,7 +1631,7 @@
         <v>45.286999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
@@ -1634,7 +1639,7 @@
         <v>16.649000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>140</v>
       </c>
@@ -1655,9 +1660,9 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1665,7 +1670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>60</v>
       </c>
@@ -1673,7 +1678,7 @@
         <v>56.575000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
@@ -1681,7 +1686,7 @@
         <v>33.597000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>140</v>
       </c>
@@ -1702,12 +1707,12 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1715,11 +1720,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>6.8061133099999997</v>
       </c>
     </row>
@@ -1736,12 +1741,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1749,11 +1754,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>34.99975835</v>
       </c>
     </row>
@@ -1770,12 +1775,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1783,11 +1788,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>4.9521200000000001E-2</v>
       </c>
     </row>
@@ -1804,12 +1809,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1817,11 +1822,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>15.1679067</v>
       </c>
     </row>
@@ -1832,15 +1837,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B01345-7AC3-4EF6-AA31-75067E57E02B}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1851,7 +1856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>80</v>
       </c>
@@ -1862,7 +1867,7 @@
         <v>7.9588781132567599</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>90</v>
       </c>
@@ -1873,7 +1878,7 @@
         <v>12.0179667073463</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>100</v>
       </c>
@@ -1884,25 +1889,36 @@
         <v>17.0552709612701</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>12.1322115167098</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>16.070154917028798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
+        <v>12.1322115167098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>120</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>9.02491348345783</v>
       </c>
     </row>
